--- a/biology/Médecine/Institut_pathologique_de_Vienne/Institut_pathologique_de_Vienne.xlsx
+++ b/biology/Médecine/Institut_pathologique_de_Vienne/Institut_pathologique_de_Vienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut pathologique est un bâtiment de Vienne, dans l'arrondissement d'Alsergrund. Il est utilisé par l'Université de médecine de Vienne et l'Université de Vienne.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'institut pathologique est créé dans la seconde moitié du XIXe siècle dans le cadre de l'ancien hôpital général de Vienne, un centre de la deuxième école de médecine de Vienne. Le pathologiste Carl von Rokitansky, qui travaille dans les locaux exigus du vieil hôpital, fait pression sur le gouvernement pour le nouveau bâtiment[1]. L'architecte Ludwig Zettl[2], spécialiste de la construction d'hôpitaux et d'asiles d'aliénés en Autriche-Hongrie, se voit confier la planification. Les travaux de construction commencent en 1859. Le 24 mai 1862, le bâtiment est officiellement inauguré en tant qu'institut pathologique, anatomique et chimique. En 1882, il est agrandi.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'institut pathologique est créé dans la seconde moitié du XIXe siècle dans le cadre de l'ancien hôpital général de Vienne, un centre de la deuxième école de médecine de Vienne. Le pathologiste Carl von Rokitansky, qui travaille dans les locaux exigus du vieil hôpital, fait pression sur le gouvernement pour le nouveau bâtiment. L'architecte Ludwig Zettl, spécialiste de la construction d'hôpitaux et d'asiles d'aliénés en Autriche-Hongrie, se voit confier la planification. Les travaux de construction commencent en 1859. Le 24 mai 1862, le bâtiment est officiellement inauguré en tant qu'institut pathologique, anatomique et chimique. En 1882, il est agrandi.
 L'institut est le lieu de travail de plusieurs générations de pathologistes viennois. Karl Landsteiner découvre ici le système ABO des groupes sanguins. L'Institut pathologique déménage en tant qu'institution au (nouvel) hôpital général de Vienne en 1991. Le bâtiment est adapté et rénové pour abriter le nouveau Centre de recherche sur le cerveau de la Faculté de médecine de l'Université de Vienne en 2000. La faculté de médecine est séparée de l'Université de Vienne en 2004 en tant qu'Université de médecine indépendante de Vienne.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment se situe au Spitalgasse 4 et fait partie de la vaste zone du campus de l'université de Vienne. Il est symétrique. Sur la façade côté rue, les deux avant-corps latéraux se détachent nettement. Entre les deux, il y a un avant-corps central plat. Sur le grenier sus-jacent, sous un couronnement de sculptures, on peut lire l'inscription latine de dédicace : Indagandis sedibus et causis morborum ("L'étude du siège et les causes des maladies"). L'inscription fait référence aux cinq livres De sedibus et causis morborum per anatomen indagatis, l'œuvre principale de Jean-Baptiste Morgagni, le fondateur de la pathologie moderne. La façade en plâtre du bâtiment est rainurée et a des fenêtres en arc partiellement couplées.
 L'Institut pathologique est un ouvrage important et en même temps tardif dans le Rundbogenstil, qui est relativement rarement représenté à Vienne.
